--- a/beheer/Template_NLCS_Lijntypes.xlsx
+++ b/beheer/Template_NLCS_Lijntypes.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Shared drives\Projects\digiGO\(EP1340) DigiGO - NLCS uitbreidingen (grootboekrekening 7051)\Deliverables\NLCS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Shared drives\Projects\digiGO\(EP1340) DigiGO - NLCS uitbreidingen (grootboekrekening 7051)\Deliverables\NLCS\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B53A4F0A-1561-4918-841B-63CF9FD16DF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F02243E-18FD-479E-9163-5BDF2435B4EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="13776" xr2:uid="{43381492-C4AD-4151-86E3-F7A2482C596A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{43381492-C4AD-4151-86E3-F7A2482C596A}"/>
   </bookViews>
   <sheets>
     <sheet name="Lijntypes" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,6 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={757E358B-822C-4DCD-989F-292DFF2AEAF4}</author>
     <author>tc={A52F46C4-78D7-4606-83CD-E8A2F0220738}</author>
     <author>tc={FB5C6B6D-5733-4C00-BA65-F2CD4D591781}</author>
     <author>tc={CE96149E-E44C-4E6B-9C99-B5ACDF49C1DD}</author>
@@ -46,42 +45,30 @@
     <author>tc={1B4F7F13-C7C2-463C-81A9-4394D4FFD79E}</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{757E358B-822C-4DCD-989F-292DFF2AEAF4}">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{A52F46C4-78D7-4606-83CD-E8A2F0220738}">
       <text>
         <t xml:space="preserve">[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Verplicht: NEE
-Inputtype: integer (hele getallen)
-Doel: Een code om de arcering aan te duiden. Vanwege URIs niet langer verplicht
-Voorbeeld:  1
+Inputtype: string  (tekst)
+Voorbeeld:  V
 </t>
       </text>
     </comment>
-    <comment ref="B1" authorId="1" shapeId="0" xr:uid="{A52F46C4-78D7-4606-83CD-E8A2F0220738}">
+    <comment ref="B1" authorId="1" shapeId="0" xr:uid="{FB5C6B6D-5733-4C00-BA65-F2CD4D591781}">
       <text>
         <t xml:space="preserve">[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Verplicht: NEE
 Inputtype: string  (tekst)
-Voorbeeld:  V
-</t>
-      </text>
-    </comment>
-    <comment ref="C1" authorId="2" shapeId="0" xr:uid="{FB5C6B6D-5733-4C00-BA65-F2CD4D591781}">
-      <text>
-        <t xml:space="preserve">[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Verplicht: NEE
-Inputtype: string  (tekst)
 Doel: Indien de lijntype tot een hoofdgroep behoort, de hoofdgroep aangeven
 Voorbeeld:  AL
 </t>
       </text>
     </comment>
-    <comment ref="D1" authorId="3" shapeId="0" xr:uid="{CE96149E-E44C-4E6B-9C99-B5ACDF49C1DD}">
+    <comment ref="C1" authorId="2" shapeId="0" xr:uid="{CE96149E-E44C-4E6B-9C99-B5ACDF49C1DD}">
       <text>
         <t xml:space="preserve">[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -93,7 +80,7 @@
 </t>
       </text>
     </comment>
-    <comment ref="E1" authorId="4" shapeId="0" xr:uid="{B6BFCA1E-CB4F-46E8-A94E-B9EF840777E6}">
+    <comment ref="D1" authorId="3" shapeId="0" xr:uid="{B6BFCA1E-CB4F-46E8-A94E-B9EF840777E6}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -103,7 +90,7 @@
 Voorbeeld:  SO</t>
       </text>
     </comment>
-    <comment ref="F1" authorId="5" shapeId="0" xr:uid="{1B4F7F13-C7C2-463C-81A9-4394D4FFD79E}">
+    <comment ref="E1" authorId="4" shapeId="0" xr:uid="{1B4F7F13-C7C2-463C-81A9-4394D4FFD79E}">
       <text>
         <t xml:space="preserve">[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -120,10 +107,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>id</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>hoofdgroep</t>
   </si>
@@ -144,7 +128,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -159,12 +143,6 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -544,39 +522,32 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="A1" dT="2024-08-01T06:00:44.90" personId="{73758C77-5600-470D-B838-4454CF10A036}" id="{757E358B-822C-4DCD-989F-292DFF2AEAF4}">
-    <text xml:space="preserve">Verplicht: NEE
-Inputtype: integer (hele getallen)
-Doel: Een code om de arcering aan te duiden. Vanwege URIs niet langer verplicht
-Voorbeeld:  1
-</text>
-  </threadedComment>
-  <threadedComment ref="B1" dT="2024-08-01T06:01:03.63" personId="{73758C77-5600-470D-B838-4454CF10A036}" id="{A52F46C4-78D7-4606-83CD-E8A2F0220738}">
+  <threadedComment ref="A1" dT="2024-08-01T06:01:03.63" personId="{73758C77-5600-470D-B838-4454CF10A036}" id="{A52F46C4-78D7-4606-83CD-E8A2F0220738}">
     <text xml:space="preserve">Verplicht: NEE
 Inputtype: string  (tekst)
 Voorbeeld:  V
 </text>
   </threadedComment>
-  <threadedComment ref="C1" dT="2024-08-01T06:02:13.39" personId="{73758C77-5600-470D-B838-4454CF10A036}" id="{FB5C6B6D-5733-4C00-BA65-F2CD4D591781}">
+  <threadedComment ref="B1" dT="2024-08-01T06:02:13.39" personId="{73758C77-5600-470D-B838-4454CF10A036}" id="{FB5C6B6D-5733-4C00-BA65-F2CD4D591781}">
     <text xml:space="preserve">Verplicht: NEE
 Inputtype: string  (tekst)
 Doel: Indien de lijntype tot een hoofdgroep behoort, de hoofdgroep aangeven
 Voorbeeld:  AL
 </text>
   </threadedComment>
-  <threadedComment ref="D1" dT="2024-08-01T06:03:26.66" personId="{73758C77-5600-470D-B838-4454CF10A036}" id="{CE96149E-E44C-4E6B-9C99-B5ACDF49C1DD}">
+  <threadedComment ref="C1" dT="2024-08-01T06:03:26.66" personId="{73758C77-5600-470D-B838-4454CF10A036}" id="{CE96149E-E44C-4E6B-9C99-B5ACDF49C1DD}">
     <text xml:space="preserve">Verplicht: JA
 Inputtype: string (tekst)
 Doel: De naam van het lijntype aangeven. Binnen Laces Apps wordt deze naam samengevoegd met de hoofdgroep en eventuele fases en opties. Dit wordt gedaan omdat er op deze manier werd verwezen naar de lijntypes vanuit de objecten. De waarde van deze cel moet echter NIET de hoofdgroep, fase, en optie bevatten.
 Voorbeeld:  PROFIEL
 </text>
   </threadedComment>
-  <threadedComment ref="E1" dT="2024-08-01T06:04:14.39" personId="{73758C77-5600-470D-B838-4454CF10A036}" id="{B6BFCA1E-CB4F-46E8-A94E-B9EF840777E6}">
+  <threadedComment ref="D1" dT="2024-08-01T06:04:14.39" personId="{73758C77-5600-470D-B838-4454CF10A036}" id="{B6BFCA1E-CB4F-46E8-A94E-B9EF840777E6}">
     <text>Verplicht: NEE
 Inputtype: string  (tekst)
 Voorbeeld:  SO</text>
   </threadedComment>
-  <threadedComment ref="F1" dT="2024-08-01T06:06:04.02" personId="{73758C77-5600-470D-B838-4454CF10A036}" id="{1B4F7F13-C7C2-463C-81A9-4394D4FFD79E}">
+  <threadedComment ref="E1" dT="2024-08-01T06:06:04.02" personId="{73758C77-5600-470D-B838-4454CF10A036}" id="{1B4F7F13-C7C2-463C-81A9-4394D4FFD79E}">
     <text xml:space="preserve">Verplicht: NEE
 Inputtype: string  (tekst)
 Doel: de code van autocad aangeven. Doe dit ZONDER de lijnbreak indicaties (/n)
@@ -588,36 +559,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B41B4784-47C3-4F9D-BE96-245E71694546}">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>2</v>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
